--- a/html/resources/aoiConditions/train1P1Block3.xlsx
+++ b/html/resources/aoiConditions/train1P1Block3.xlsx
@@ -22,13 +22,13 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/03_kikita3.wav</t>
+    <t>trainingaudio/25_tapapi1.wav</t>
   </si>
   <si>
     <t>trainingaudio/26_kapako1.wav</t>
   </si>
   <si>
-    <t>pngimages/03_box.png</t>
+    <t>pngimages/25_apple.png</t>
   </si>
   <si>
     <t>pngimages/26_pineapple.png</t>

--- a/html/resources/aoiConditions/train1P1Block3.xlsx
+++ b/html/resources/aoiConditions/train1P1Block3.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/25_tapapi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako1.wav</t>
+    <t>trainingaudio/25_tapapi1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako1.mp3</t>
   </si>
   <si>
     <t>pngimages/25_apple.png</t>

--- a/html/resources/aoiConditions/train1P1Block3.xlsx
+++ b/html/resources/aoiConditions/train1P1Block3.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/25_tapapi1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako1.mp3</t>
+    <t>trainingaudio/25_tapapi1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako1.ogg</t>
   </si>
   <si>
     <t>pngimages/25_apple.png</t>

--- a/html/resources/aoiConditions/train1P1Block3.xlsx
+++ b/html/resources/aoiConditions/train1P1Block3.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/25_tapapi1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako1.ogg</t>
+    <t>trainingaudio/25_tapapi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako1.wav</t>
   </si>
   <si>
     <t>pngimages/25_apple.png</t>
